--- a/RAnalysis/Data/Sequencing_metadata/lcWGS_samples.xlsx
+++ b/RAnalysis/Data/Sequencing_metadata/lcWGS_samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samjg\Documents\Github_repositories\Pmagellanicus_omics\RAnalysis\Data\Sequencing_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AF4765-E805-4C3C-8ECF-E48F86806E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A643649-DAA5-40D6-81DE-09293730A456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14565" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="561">
   <si>
     <t>Sea scallop sample log sheet for OAP project , "Disentagling.."</t>
   </si>
@@ -1725,6 +1725,9 @@
   </si>
   <si>
     <t>Little Hurricane Island West</t>
+  </si>
+  <si>
+    <t>Razor's Island</t>
   </si>
 </sst>
 </file>
@@ -2250,8 +2253,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2540,7 +2543,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>18</v>
+        <v>560</v>
       </c>
       <c r="F20" s="11">
         <v>45798</v>
@@ -9423,8 +9426,8 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A77" zoomScale="58" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9438,7 +9441,7 @@
     <col min="9" max="9" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="63.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
     <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.26953125" bestFit="1" customWidth="1"/>
